--- a/Projections.xlsx
+++ b/Projections.xlsx
@@ -14,54 +14,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+  <si>
+    <t>GAMECODE_x</t>
+  </si>
   <si>
     <t>TEAM_ABBREVIATION_x_x</t>
   </si>
   <si>
-    <t>ProjectedPace</t>
-  </si>
-  <si>
-    <t>DaysRest_x</t>
-  </si>
-  <si>
-    <t>AvgPace_x_x</t>
-  </si>
-  <si>
-    <t>std_AvgORTG_x_x</t>
-  </si>
-  <si>
-    <t>HomeORTG_x_x</t>
-  </si>
-  <si>
-    <t>std_AvgORTG_L5_x_x</t>
-  </si>
-  <si>
-    <t>AvgDRTG_x_y</t>
-  </si>
-  <si>
-    <t>Predicted</t>
-  </si>
-  <si>
     <t>ProjectedScore</t>
   </si>
   <si>
+    <t>CalculatedLines</t>
+  </si>
+  <si>
+    <t>VegasLines</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>BetGrade</t>
+  </si>
+  <si>
+    <t>20171101/MILCHA</t>
+  </si>
+  <si>
+    <t>20171101/INDCLE</t>
+  </si>
+  <si>
+    <t>20171101/ATLPHI</t>
+  </si>
+  <si>
+    <t>20171101/PHXWAS</t>
+  </si>
+  <si>
+    <t>20171101/SACBOS</t>
+  </si>
+  <si>
+    <t>20171101/HOUNYK</t>
+  </si>
+  <si>
+    <t>20171101/ORLMEM</t>
+  </si>
+  <si>
+    <t>20171101/MINNOP</t>
+  </si>
+  <si>
+    <t>20171101/TORDEN</t>
+  </si>
+  <si>
+    <t>20171101/PORUTA</t>
+  </si>
+  <si>
+    <t>20171101/DALLAC</t>
+  </si>
+  <si>
+    <t>20171101/CHIMIA</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
     <t>IND</t>
   </si>
   <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>BKN</t>
-  </si>
-  <si>
-    <t>PHX</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DET</t>
+    <t>NYK</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -419,13 +512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,224 +540,611 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>101.166</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>106.69022310427</v>
       </c>
       <c r="E2">
-        <v>104.392</v>
+        <v>216.9702601056712</v>
       </c>
       <c r="F2">
-        <v>116.3958102225388</v>
+        <v>203</v>
       </c>
       <c r="G2">
-        <v>109</v>
-      </c>
-      <c r="H2">
-        <v>116.7591160962953</v>
-      </c>
-      <c r="I2">
-        <v>106.76</v>
-      </c>
-      <c r="J2">
-        <v>115.3529185530477</v>
-      </c>
-      <c r="K2">
-        <v>116.6979335833762</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>13.97026010567117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>101.166</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>110.2800370014011</v>
       </c>
       <c r="E3">
-        <v>97.94</v>
+        <v>-3.589813897131094</v>
       </c>
       <c r="F3">
-        <v>91.59216450703639</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>102.3</v>
-      </c>
-      <c r="H3">
-        <v>93.27240758358249</v>
-      </c>
-      <c r="I3">
-        <v>110.32</v>
-      </c>
-      <c r="J3">
-        <v>102.8378385993854</v>
-      </c>
-      <c r="K3">
-        <v>104.0369277974543</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>-7.589813897131094</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>107.4391666666667</v>
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>112.1301538923914</v>
       </c>
       <c r="E4">
-        <v>107.6783333333333</v>
+        <v>225.8645486288925</v>
       </c>
       <c r="F4">
-        <v>105.5508259687233</v>
+        <v>217.5</v>
       </c>
       <c r="G4">
-        <v>109.6666666666667</v>
-      </c>
-      <c r="H4">
-        <v>103.5269219759567</v>
-      </c>
-      <c r="I4">
-        <v>108.56</v>
-      </c>
-      <c r="J4">
-        <v>109.568724385961</v>
-      </c>
-      <c r="K4">
-        <v>117.7197244075732</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>8.364548628892521</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>107.4391666666667</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>113.7343947365011</v>
       </c>
       <c r="E5">
-        <v>107.2</v>
+        <v>-1.604240844109654</v>
       </c>
       <c r="F5">
-        <v>102.5611105811434</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>98.22499999999999</v>
-      </c>
-      <c r="H5">
-        <v>102.6247940636645</v>
-      </c>
-      <c r="I5">
-        <v>109.3833333333333</v>
-      </c>
-      <c r="J5">
-        <v>107.3665575556629</v>
-      </c>
-      <c r="K5">
-        <v>115.3537347164913</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-11.60424084410965</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>104.0993333333333</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>103.8623549988212</v>
       </c>
       <c r="E6">
-        <v>108.612</v>
+        <v>207.6819269709778</v>
       </c>
       <c r="F6">
-        <v>93.01737604979475</v>
+        <v>209</v>
       </c>
       <c r="G6">
-        <v>92.125</v>
-      </c>
-      <c r="H6">
-        <v>93.0751335214939</v>
-      </c>
-      <c r="I6">
-        <v>100.45</v>
-      </c>
-      <c r="J6">
-        <v>96.16505488843102</v>
-      </c>
-      <c r="K6">
-        <v>100.1071810384908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>-1.318073029022202</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>103.8195719721566</v>
+      </c>
+      <c r="E7">
+        <v>0.04278302666466516</v>
+      </c>
+      <c r="F7">
+        <v>7.5</v>
+      </c>
+      <c r="G7">
+        <v>-7.457216973335335</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>118.2030048352757</v>
+      </c>
+      <c r="E8">
+        <v>228.0408306524729</v>
+      </c>
+      <c r="F8">
+        <v>227.5</v>
+      </c>
+      <c r="G8">
+        <v>0.5408306524729483</v>
+      </c>
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>109.8378258171972</v>
+      </c>
+      <c r="E9">
+        <v>8.365179018078507</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>-2.634820981921493</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>105.1101621625895</v>
+      </c>
+      <c r="E10">
+        <v>197.0947039887018</v>
+      </c>
+      <c r="F10">
+        <v>196</v>
+      </c>
+      <c r="G10">
+        <v>1.094703988701809</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>91.98454182611228</v>
+      </c>
+      <c r="E11">
+        <v>13.12562033647725</v>
+      </c>
+      <c r="F11">
+        <v>11.5</v>
+      </c>
+      <c r="G11">
+        <v>1.625620336477255</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>103.0196631074023</v>
+      </c>
+      <c r="E12">
+        <v>208.7283965999948</v>
+      </c>
+      <c r="F12">
+        <v>214</v>
+      </c>
+      <c r="G12">
+        <v>-5.271603400005176</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>105.7087334925926</v>
+      </c>
+      <c r="E13">
+        <v>-2.689070385190277</v>
+      </c>
+      <c r="F13">
+        <v>-5.5</v>
+      </c>
+      <c r="G13">
+        <v>2.810929614809723</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>105.7977901632622</v>
+      </c>
+      <c r="E14">
+        <v>215.0444523688644</v>
+      </c>
+      <c r="F14">
+        <v>206.5</v>
+      </c>
+      <c r="G14">
+        <v>8.544452368864398</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>109.2466622056022</v>
+      </c>
+      <c r="E15">
+        <v>-3.448872042339929</v>
+      </c>
+      <c r="F15">
+        <v>2.5</v>
+      </c>
+      <c r="G15">
+        <v>-5.948872042339929</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>116.8577588906341</v>
+      </c>
+      <c r="E16">
+        <v>228.9692761657491</v>
+      </c>
+      <c r="F16">
+        <v>224</v>
+      </c>
+      <c r="G16">
+        <v>4.969276165749051</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>104.0993333333333</v>
-      </c>
-      <c r="D7">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>112.1115172751149</v>
+      </c>
+      <c r="E17">
+        <v>4.746241615519182</v>
+      </c>
+      <c r="F17">
+        <v>2.5</v>
+      </c>
+      <c r="G17">
+        <v>2.246241615519182</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>103.8693992095103</v>
+      </c>
+      <c r="E18">
+        <v>216.9238479512036</v>
+      </c>
+      <c r="F18">
+        <v>215.5</v>
+      </c>
+      <c r="G18">
+        <v>1.423847951203584</v>
+      </c>
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>113.0544487416932</v>
+      </c>
+      <c r="E19">
+        <v>-9.18504953218293</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>99.58666666666666</v>
-      </c>
-      <c r="F7">
-        <v>103.2021117601882</v>
-      </c>
-      <c r="G7">
-        <v>102.3666666666667</v>
-      </c>
-      <c r="H7">
-        <v>104.7817133844808</v>
-      </c>
-      <c r="I7">
-        <v>100.66</v>
-      </c>
-      <c r="J7">
-        <v>104.133731371943</v>
-      </c>
-      <c r="K7">
-        <v>108.4025201333168</v>
+      <c r="G19">
+        <v>-11.18504953218293</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>100.1061867628407</v>
+      </c>
+      <c r="E20">
+        <v>205.1967481909549</v>
+      </c>
+      <c r="F20">
+        <v>192</v>
+      </c>
+      <c r="G20">
+        <v>13.19674819095488</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>105.0905614281141</v>
+      </c>
+      <c r="E21">
+        <v>-4.984374665273407</v>
+      </c>
+      <c r="F21">
+        <v>3.5</v>
+      </c>
+      <c r="G21">
+        <v>-8.484374665273407</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>110.7882788943609</v>
+      </c>
+      <c r="E22">
+        <v>208.9429900832016</v>
+      </c>
+      <c r="F22">
+        <v>206</v>
+      </c>
+      <c r="G22">
+        <v>2.942990083201579</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>98.15471118884068</v>
+      </c>
+      <c r="E23">
+        <v>12.63356770552022</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>2.633567705520221</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>196.5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
